--- a/_Out/NFDataCfg/Excel_Ini/SqlServer.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/SqlServer.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="27518" windowHeight="17543"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Id</t>
   </si>
@@ -100,13 +100,16 @@
   <si>
     <t>Upload</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Force</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -342,7 +345,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -686,26 +689,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.46484375" style="6" customWidth="1"/>
     <col min="3" max="3" width="15" style="6" customWidth="1"/>
-    <col min="4" max="4" width="5.453125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.453125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="7.453125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="5.46484375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.796875" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.46484375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="7.46484375" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -734,7 +737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="2" customFormat="1">
       <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
@@ -763,7 +766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="3" customFormat="1">
       <c r="A3" s="11" t="s">
         <v>12</v>
       </c>
@@ -792,7 +795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="3" customFormat="1">
       <c r="A4" s="11" t="s">
         <v>13</v>
       </c>
@@ -821,7 +824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="3" customFormat="1">
       <c r="A5" s="11" t="s">
         <v>14</v>
       </c>
@@ -850,7 +853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="3" customFormat="1">
       <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
@@ -879,7 +882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="4" customFormat="1">
       <c r="A7" s="14" t="s">
         <v>16</v>
       </c>
@@ -908,82 +911,111 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="4" customFormat="1">
       <c r="A8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="4" customFormat="1">
+      <c r="A9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4" t="b">
+      <c r="B9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+    <row r="10" spans="1:9" s="5" customFormat="1">
+      <c r="A10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D11" s="6">
         <v>7001</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F11" s="6">
         <v>3306</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H11" s="6">
         <v>123456</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I11" s="6" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A8"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:I6 B7:J8">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:I6 B7:J9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
